--- a/questions/optimum_number_of_stories_likedness.xlsx
+++ b/questions/optimum_number_of_stories_likedness.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean_Number_of_Stories</t>
+          <t>Most_Common_Number_of_Stories</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
         <v>283</v>
       </c>
       <c r="C2" t="n">
-        <v>1.869257950530035</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>187</v>
       </c>
       <c r="C3" t="n">
-        <v>1.732620320855615</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>412</v>
       </c>
       <c r="C4" t="n">
-        <v>1.953883495145631</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>506</v>
       </c>
       <c r="C5" t="n">
-        <v>1.964426877470356</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>735</v>
       </c>
       <c r="C6" t="n">
-        <v>1.882993197278912</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/questions/optimum_number_of_stories_likedness.xlsx
+++ b/questions/optimum_number_of_stories_likedness.xlsx
@@ -432,6 +432,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
